--- a/matthias_SA/volllast/Volllastkennlinie_Fiat_56-66.xlsx
+++ b/matthias_SA/volllast/Volllastkennlinie_Fiat_56-66.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bernerfachhochschule-my.sharepoint.com/personal/ramem2_bfh_ch/Documents/Desktop/SA Schleppmomente/Vollastkennlinien/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{251E62D0-9A5F-4782-BD37-4CE2BCCD97B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="8_{251E62D0-9A5F-4782-BD37-4CE2BCCD97B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E882FACD-FBBB-412B-B43B-87540AF95C84}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{A43C3E6E-DCB2-4081-AE21-6FEBC6A79BC0}"/>
+    <workbookView xWindow="40920" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{A43C3E6E-DCB2-4081-AE21-6FEBC6A79BC0}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -77,8 +77,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -94,6 +95,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -393,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46824E88-6288-4520-81A9-9882954956C6}">
-  <dimension ref="B3:C12"/>
+  <dimension ref="B3:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -414,74 +419,82 @@
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B4">
-        <v>2300</v>
+        <v>2310</v>
       </c>
       <c r="C4">
-        <v>247</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B5">
-        <v>2200</v>
-      </c>
-      <c r="C5">
-        <v>585</v>
+        <v>2300</v>
+      </c>
+      <c r="C5" s="1">
+        <v>58.206120361773422</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B6">
-        <v>2100</v>
-      </c>
-      <c r="C6">
-        <v>666</v>
+        <v>2200</v>
+      </c>
+      <c r="C6" s="1">
+        <v>137.85660085683179</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B7">
-        <v>2000</v>
-      </c>
-      <c r="C7">
-        <v>667</v>
+        <v>2100</v>
+      </c>
+      <c r="C7" s="1">
+        <v>156.94443789854697</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B8">
-        <v>1900</v>
-      </c>
-      <c r="C8">
-        <v>696</v>
+        <v>2000</v>
+      </c>
+      <c r="C8" s="1">
+        <v>157.18009020770393</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B9">
-        <v>1800</v>
-      </c>
-      <c r="C9">
-        <v>708</v>
+        <v>1900</v>
+      </c>
+      <c r="C9" s="1">
+        <v>164.01400717325629</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B10">
-        <v>1700</v>
-      </c>
-      <c r="C10">
-        <v>708</v>
+        <v>1800</v>
+      </c>
+      <c r="C10" s="1">
+        <v>166.84183488314</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B11">
-        <v>1600</v>
-      </c>
-      <c r="C11">
-        <v>708</v>
+        <v>1700</v>
+      </c>
+      <c r="C11" s="1">
+        <v>166.84183488314</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B12">
+        <v>1600</v>
+      </c>
+      <c r="C12" s="1">
+        <v>166.84183488314</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B13">
         <v>1500</v>
       </c>
-      <c r="C12">
-        <v>708</v>
+      <c r="C13" s="1">
+        <v>166.84183488314</v>
       </c>
     </row>
   </sheetData>
